--- a/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACION AVANCE FASE 2.xlsx
+++ b/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACION AVANCE FASE 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Downloads\Evidencias Grupales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\DUOC\CAPSTONE\2025-2\Rúbricas\4D\Fase 2\--Equipo 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DD6CA-323A-4D1F-B736-8A696E2A39EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC97BB3C-D6A4-422D-A1AB-6AF77D2A0F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUACION2" sheetId="1" r:id="rId1"/>
@@ -278,10 +278,10 @@
     <t>No generan evidencias dentro del repositorio  del proyecto del aporte de cada uno de los integrantes del equipo por lo que no se permite identificar la equidad en el trabajo y la participación de cada estudiante</t>
   </si>
   <si>
-    <t>Matias Mora</t>
+    <t>MORA PALMA MATIAS FRANCISCO</t>
   </si>
   <si>
-    <t>Sebastian Leyton</t>
+    <t>LEYTON CISTERNA SEBASTIAN ANDRES</t>
   </si>
 </sst>
 </file>
@@ -302,42 +302,50 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1254,7 +1262,7 @@
   <dimension ref="A2:K895"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1293,7 +1301,7 @@
       </c>
       <c r="C4" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1306,7 +1314,7 @@
       </c>
       <c r="C5" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1317,7 +1325,7 @@
       <c r="B6" s="25"/>
       <c r="C6" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1454,23 +1462,23 @@
         <v>3. Genera evidencias que dan cuenta del avance del Proyecto APT en relación a documentación, programación y almacenamiento de datos , de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="E15" s="15">
+        <v/>
+      </c>
+      <c r="E15" s="15" t="str">
         <f>IF(D15="X",100*0.25,"")</f>
-        <v>25</v>
+        <v/>
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G15" s="15" t="str">
+        <v>X</v>
+      </c>
+      <c r="G15" s="15">
         <f>IF(F15="X",60*0.25,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1706,17 +1714,17 @@
       </c>
       <c r="C21" s="31">
         <f>E21+G21+I21+K21</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16">
         <f>SUM(E13:E20)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
         <f>SUM(G13:G20)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16">
@@ -1736,7 +1744,7 @@
       </c>
       <c r="C22" s="17">
         <f>VLOOKUP(C21,ESCALA_IEP!A2:B202,2,FALSE)</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
